--- a/techniqo/data_new_ticker/ORIENTELEC.xlsx
+++ b/techniqo/data_new_ticker/ORIENTELEC.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G579"/>
+  <dimension ref="A1:G581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20651,6 +20651,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>218</v>
+      </c>
+      <c r="C580" t="n">
+        <v>233.55</v>
+      </c>
+      <c r="D580" t="n">
+        <v>216.6</v>
+      </c>
+      <c r="E580" t="n">
+        <v>226.15</v>
+      </c>
+      <c r="F580" t="n">
+        <v>1198721</v>
+      </c>
+      <c r="G580" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>228</v>
+      </c>
+      <c r="C581" t="n">
+        <v>228.35</v>
+      </c>
+      <c r="D581" t="n">
+        <v>216.85</v>
+      </c>
+      <c r="E581" t="n">
+        <v>220.55</v>
+      </c>
+      <c r="F581" t="n">
+        <v>268637</v>
+      </c>
+      <c r="G581" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ORIENTELEC.xlsx
+++ b/techniqo/data_new_ticker/ORIENTELEC.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G581"/>
+  <dimension ref="A1:G583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20701,6 +20701,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>218.6</v>
+      </c>
+      <c r="C582" t="n">
+        <v>220.15</v>
+      </c>
+      <c r="D582" t="n">
+        <v>214.05</v>
+      </c>
+      <c r="E582" t="n">
+        <v>215.65</v>
+      </c>
+      <c r="F582" t="n">
+        <v>145688</v>
+      </c>
+      <c r="G582" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>214</v>
+      </c>
+      <c r="C583" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="D583" t="n">
+        <v>196.2</v>
+      </c>
+      <c r="E583" t="n">
+        <v>204.75</v>
+      </c>
+      <c r="F583" t="n">
+        <v>1551042</v>
+      </c>
+      <c r="G583" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
